--- a/initial_beads_pos.xlsx
+++ b/initial_beads_pos.xlsx
@@ -393,58 +393,58 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="B2">
-        <v>52</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="B3">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="B4">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="B5">
-        <v>63</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="B6">
-        <v>15</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="B7">
-        <v>35</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B8">
-        <v>65</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -452,23 +452,23 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="B10">
-        <v>85</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="B11">
-        <v>87</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/initial_beads_pos.xlsx
+++ b/initial_beads_pos.xlsx
@@ -393,82 +393,82 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="B2">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="B3">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="B4">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="B5">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="B6">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
+        <v>58</v>
+      </c>
+      <c r="B7">
         <v>16</v>
-      </c>
-      <c r="B7">
-        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="B8">
-        <v>72</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="B9">
-        <v>41</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="B10">
-        <v>43</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B11">
-        <v>11</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/initial_beads_pos.xlsx
+++ b/initial_beads_pos.xlsx
@@ -393,82 +393,82 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B2">
-        <v>13</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B3">
-        <v>63</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="B4">
-        <v>33</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="B5">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B6">
-        <v>74</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="B7">
-        <v>16</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>51</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B9">
-        <v>84</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B10">
-        <v>64</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11">
-        <v>89</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/initial_beads_pos.xlsx
+++ b/initial_beads_pos.xlsx
@@ -393,82 +393,82 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="B2">
-        <v>71</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="B3">
-        <v>24</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="B4">
-        <v>43</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="B5">
-        <v>47</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="B6">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>86</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>88</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="B9">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="B10">
-        <v>76</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="B11">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/initial_beads_pos.xlsx
+++ b/initial_beads_pos.xlsx
@@ -393,82 +393,82 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B2">
-        <v>24</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="B4">
-        <v>87</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B5">
-        <v>76</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="B6">
-        <v>41</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="B7">
-        <v>53</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B8">
-        <v>18</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B9">
-        <v>48</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B11">
-        <v>13</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/initial_beads_pos.xlsx
+++ b/initial_beads_pos.xlsx
@@ -393,82 +393,82 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="B2">
-        <v>49</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B3">
-        <v>71</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B4">
-        <v>62</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>82</v>
+        <v>29</v>
       </c>
       <c r="B5">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="B6">
-        <v>89</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>19</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="B8">
-        <v>62</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B9">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="B10">
-        <v>18</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="B11">
-        <v>42</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
